--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="931">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -70,13 +70,13 @@
     <t xml:space="preserve">AluminiumBeam</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(AlminiumOre:2,Wood:2,SteelScrew:2)</t>
+    <t xml:space="preserve">MachiningBench(AluminiumOre:2,Wood:2,SteelScrew:2)</t>
   </si>
   <si>
     <t xml:space="preserve">AluminiumDoor</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(AlminiumOre:4,Wood:6,SteelScrew:4)</t>
+    <t xml:space="preserve">MachiningBench(AluminiumOre:4,Wood:6,SteelScrew:4)</t>
   </si>
   <si>
     <t xml:space="preserve">AluminiumFloor</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">AluminiumLadder</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(AlminiumOre:2,Wood:2,SteelScrew:6)</t>
+    <t xml:space="preserve">MachiningBench(AluminiumOre:2,Wood:2,SteelScrew:6)</t>
   </si>
   <si>
     <t xml:space="preserve">AluminiumOre</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">AluminiumRoofCorner</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(AlminiumOre:2,Wood:6,SteelScrew:4)</t>
+    <t xml:space="preserve">MachiningBench(AluminiumOre:2,Wood:6,SteelScrew:4)</t>
   </si>
   <si>
     <t xml:space="preserve">AluminiumStairs</t>
@@ -133,13 +133,13 @@
     <t xml:space="preserve">AluminiumWallAngled</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(AlminiumOre:4,Wood:6,SteelScrew:2)</t>
+    <t xml:space="preserve">MachiningBench(AluminiumOre:4,Wood:6,SteelScrew:2)</t>
   </si>
   <si>
     <t xml:space="preserve">AluminiumWindow</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(AlminiumOre:2,Wood:3,SteelScrew:4)</t>
+    <t xml:space="preserve">MachiningBench(AluminiumOre:2,Wood:3,SteelScrew:4)</t>
   </si>
   <si>
     <t xml:space="preserve">AnimalBait</t>
@@ -628,7 +628,7 @@
     <t xml:space="preserve">Composites</t>
   </si>
   <si>
-    <t xml:space="preserve">ElectricFurnace(CompositePasteinan:1)</t>
+    <t xml:space="preserve">ElectricFurnace(CompositePaste:1)</t>
   </si>
   <si>
     <t xml:space="preserve">CompositeSpear</t>
@@ -2807,6 +2807,12 @@
   </si>
   <si>
     <t xml:space="preserve">YoungCoconut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WorkShop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterCrafting</t>
   </si>
 </sst>
 </file>
@@ -2899,7 +2905,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2920,6 +2926,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2937,18 +2947,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G610"/>
+  <dimension ref="A1:G611"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A588" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E378" activeCellId="0" sqref="E:E"/>
+      <selection pane="bottomLeft" activeCell="A610" activeCellId="0" sqref="A610:B611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="7.4"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="1" width="9.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="3.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="68.76"/>
@@ -13011,7 +13021,27 @@
       <c r="G609" s="3"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>929</v>
+      </c>
       <c r="E610" s="3"/>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C611" s="5" t="s">
+        <v>930</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="974">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">AluminiumArrow</t>
   </si>
   <si>
+    <t xml:space="preserve">MachiningBench(CopperIngot:1,AluminiumIngot:4,Epoxy:1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">AluminiumBeam</t>
   </si>
   <si>
@@ -247,7 +250,7 @@
     <t xml:space="preserve">BarbequeCarrot</t>
   </si>
   <si>
-    <t xml:space="preserve">Campfile(Carrot:1)|Firepit(Carrot:1)|Fireplace(Carrot:1)</t>
+    <t xml:space="preserve">Campfire(Carrot:1)|Firepit(Carrot:1)|Fireplace(Carrot:1)</t>
   </si>
   <si>
     <t xml:space="preserve">BasicBandage</t>
@@ -538,7 +541,7 @@
     <t xml:space="preserve">CharredCorn</t>
   </si>
   <si>
-    <t xml:space="preserve">Campfile(Corn:1)|Firepit(Corn:1)|Fireplace(Corn:1)</t>
+    <t xml:space="preserve">Campfire(Corn:1)|Firepit(Corn:1)|Fireplace(Corn:1)</t>
   </si>
   <si>
     <t xml:space="preserve">ChemistryBench</t>
@@ -712,55 +715,55 @@
     <t xml:space="preserve">CookedBacon</t>
   </si>
   <si>
-    <t xml:space="preserve">Campfile(RawBacon:1)|Firepit(RawBacon:1)|Fireplace(RawBacon:1)</t>
+    <t xml:space="preserve">Campfire(RawBacon:1)|Firepit(RawBacon:1)|Fireplace(RawBacon:1)</t>
   </si>
   <si>
     <t xml:space="preserve">CookedFattyTbone</t>
   </si>
   <si>
-    <t xml:space="preserve">Campfile(RawFattyTbone:1)|Firepit(RawFattyTbone:1)|Fireplace(RawFattyTbone:1)|BiofuelStove(RawFattyTbone:1)</t>
+    <t xml:space="preserve">Campfire(RawFattyTbone:1)|Firepit(RawFattyTbone:1)|Fireplace(RawFattyTbone:1)|BiofuelStove(RawFattyTbone:1)</t>
   </si>
   <si>
     <t xml:space="preserve">CookedFish</t>
   </si>
   <si>
-    <t xml:space="preserve">Campfile(RawFish:1)|Firepit(RawFish:1)|Fireplace(RawFish:1)</t>
+    <t xml:space="preserve">Campfire(RawFish:1)|Firepit(RawFish:1)|Fireplace(RawFish:1)</t>
   </si>
   <si>
     <t xml:space="preserve">CookedGameMeat</t>
   </si>
   <si>
-    <t xml:space="preserve">Campfile(RawGameMeat:1)|Firepit(RawGameMeat:1)|Fireplace(RawGameMeat:1)|BiofuelStove(RawGameMeat:1)</t>
+    <t xml:space="preserve">Campfire(RawGameMeat:1)|Firepit(RawGameMeat:1)|Fireplace(RawGameMeat:1)|BiofuelStove(RawGameMeat:1)</t>
   </si>
   <si>
     <t xml:space="preserve">CookedGiantSteak</t>
   </si>
   <si>
-    <t xml:space="preserve">Campfile(RawGiantSteak:1)|Firepit(RawGiantSteak:1)|Fireplace(RawGiantSteak:1)|BiofuelStove(RawGiantSteak:1)</t>
+    <t xml:space="preserve">Campfire(RawGiantSteak:1)|Firepit(RawGiantSteak:1)|Fireplace(RawGiantSteak:1)|BiofuelStove(RawGiantSteak:1)</t>
   </si>
   <si>
     <t xml:space="preserve">CookedMeat</t>
   </si>
   <si>
-    <t xml:space="preserve">Campfile(RawMeat:1)|Firepit(RawMeat:1)|Fireplace(RawMeat:1)</t>
+    <t xml:space="preserve">Campfire(RawMeat:1)|Firepit(RawMeat:1)|Fireplace(RawMeat:1)</t>
   </si>
   <si>
     <t xml:space="preserve">CookedSoftMeat</t>
   </si>
   <si>
-    <t xml:space="preserve">Campfile(RawSoftMeat:1)|Firepit(RawSoftMeat:1)|Fireplace(RawSoftMeat:1)|BiofuelStove(RawSoftMeat:1)</t>
+    <t xml:space="preserve">Campfire(RawSoftMeat:1)|Firepit(RawSoftMeat:1)|Fireplace(RawSoftMeat:1)|BiofuelStove(RawSoftMeat:1)</t>
   </si>
   <si>
     <t xml:space="preserve">CookedStringyMeat</t>
   </si>
   <si>
-    <t xml:space="preserve">Campfile(RawStringyMeat:1)|Firepit(RawStringyMeat:1)|Fireplace(RawStringyMeat:1)|BiofuelStove(RawStringyMeat:1)</t>
+    <t xml:space="preserve">Campfire(RawStringyMeat:1)|Firepit(RawStringyMeat:1)|Fireplace(RawStringyMeat:1)|BiofuelStove(RawStringyMeat:1)</t>
   </si>
   <si>
     <t xml:space="preserve">CookedWhiteMeat</t>
   </si>
   <si>
-    <t xml:space="preserve">Campfile(RawWhiteMeat:1)|Firepit(RawWhiteMeat:1)|Fireplace(RawWhiteMeat:1)|BiofuelStove(RawWhiteMeat:1)</t>
+    <t xml:space="preserve">Campfire(RawWhiteMeat:1)|Firepit(RawWhiteMeat:1)|Fireplace(RawWhiteMeat:1)|BiofuelStove(RawWhiteMeat:1)</t>
   </si>
   <si>
     <t xml:space="preserve">CookingStation</t>
@@ -2652,6 +2655,7 @@
         <sz val="9"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Fabricator</t>
     </r>
@@ -2952,6 +2956,9 @@
   </si>
   <si>
     <t xml:space="preserve">PoisonSack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
   </si>
 </sst>
 </file>
@@ -3005,6 +3012,7 @@
       <sz val="9"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3101,12 +3109,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G614"/>
+  <dimension ref="A1:G615"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E115" activeCellId="0" sqref="E115 E117:E120"/>
+      <selection pane="bottomLeft" activeCell="C88" activeCellId="0" sqref="C88 C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3206,7 +3214,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3225,9 @@
         <v>14</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
@@ -3229,11 +3239,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3246,11 +3256,11 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3263,11 +3273,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3280,11 +3290,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3297,11 +3307,11 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3314,11 +3324,11 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3331,11 +3341,11 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3348,11 +3358,11 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3365,7 +3375,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -3380,11 +3390,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3397,11 +3407,11 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3414,11 +3424,11 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -3431,11 +3441,11 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3448,11 +3458,11 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -3465,11 +3475,11 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3482,11 +3492,11 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3499,11 +3509,11 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3516,11 +3526,11 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3533,7 +3543,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
@@ -3548,11 +3558,11 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3565,7 +3575,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4" t="s">
@@ -3582,7 +3592,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
@@ -3599,11 +3609,11 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3616,11 +3626,11 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3633,11 +3643,11 @@
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3650,11 +3660,11 @@
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -3667,11 +3677,11 @@
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3684,11 +3694,11 @@
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -3701,7 +3711,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="4" t="s">
@@ -3718,7 +3728,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="4" t="s">
@@ -3735,7 +3745,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="4" t="s">
@@ -3752,11 +3762,11 @@
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3769,11 +3779,11 @@
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3786,11 +3796,11 @@
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -3803,7 +3813,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4" t="s">
@@ -3820,7 +3830,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4" t="s">
@@ -3837,7 +3847,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
@@ -3854,11 +3864,11 @@
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -3871,7 +3881,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4" t="s">
@@ -3888,7 +3898,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="4" t="s">
@@ -3905,7 +3915,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="4" t="s">
@@ -3922,7 +3932,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="4" t="s">
@@ -3939,11 +3949,11 @@
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -3956,11 +3966,11 @@
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -3973,11 +3983,11 @@
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -3990,11 +4000,11 @@
         <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -4007,11 +4017,11 @@
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -4024,7 +4034,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="2"/>
@@ -4039,11 +4049,11 @@
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -4056,11 +4066,11 @@
         <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -4073,11 +4083,11 @@
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -4090,11 +4100,11 @@
         <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -4107,11 +4117,11 @@
         <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -4124,11 +4134,11 @@
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -4141,11 +4151,11 @@
         <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -4158,11 +4168,11 @@
         <v>7</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -4175,11 +4185,11 @@
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -4192,11 +4202,11 @@
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -4209,11 +4219,11 @@
         <v>7</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -4226,11 +4236,11 @@
         <v>7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -4243,7 +4253,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="2"/>
@@ -4258,11 +4268,11 @@
         <v>7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -4275,11 +4285,11 @@
         <v>7</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -4292,11 +4302,11 @@
         <v>7</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -4309,11 +4319,11 @@
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -4326,7 +4336,7 @@
         <v>7</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="4" t="s">
@@ -4343,7 +4353,7 @@
         <v>7</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="4" t="s">
@@ -4360,7 +4370,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="4" t="s">
@@ -4377,11 +4387,11 @@
         <v>7</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -4394,7 +4404,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4409,11 +4419,11 @@
         <v>7</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -4426,11 +4436,11 @@
         <v>7</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -4443,11 +4453,11 @@
         <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -4460,11 +4470,11 @@
         <v>7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -4477,11 +4487,11 @@
         <v>7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -4494,11 +4504,11 @@
         <v>7</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -4511,11 +4521,11 @@
         <v>7</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -4528,11 +4538,11 @@
         <v>7</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -4545,7 +4555,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4560,11 +4570,11 @@
         <v>7</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -4577,11 +4587,11 @@
         <v>7</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -4594,11 +4604,11 @@
         <v>7</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -4611,11 +4621,11 @@
         <v>7</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -4628,11 +4638,11 @@
         <v>7</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -4645,11 +4655,11 @@
         <v>7</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -4662,11 +4672,11 @@
         <v>7</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -4679,11 +4689,11 @@
         <v>7</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -4696,11 +4706,11 @@
         <v>7</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -4713,7 +4723,7 @@
         <v>7</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="2"/>
@@ -4728,11 +4738,11 @@
         <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -4745,11 +4755,11 @@
         <v>7</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -4762,11 +4772,11 @@
         <v>7</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -4779,11 +4789,11 @@
         <v>7</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -4796,11 +4806,11 @@
         <v>7</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -4813,11 +4823,11 @@
         <v>7</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -4830,7 +4840,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="2"/>
@@ -4845,11 +4855,11 @@
         <v>7</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -4862,11 +4872,11 @@
         <v>7</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -4879,10 +4889,10 @@
         <v>7</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -4895,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -4911,10 +4921,10 @@
         <v>7</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -4927,10 +4937,10 @@
         <v>7</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -4943,10 +4953,10 @@
         <v>7</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -4959,7 +4969,7 @@
         <v>7</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="3"/>
@@ -4973,7 +4983,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -4987,7 +4997,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -5001,10 +5011,10 @@
         <v>7</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -5017,7 +5027,7 @@
         <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -5031,10 +5041,10 @@
         <v>7</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -5047,10 +5057,10 @@
         <v>7</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -5063,10 +5073,10 @@
         <v>7</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -5079,10 +5089,10 @@
         <v>7</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -5095,10 +5105,10 @@
         <v>7</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -5111,10 +5121,10 @@
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -5127,10 +5137,10 @@
         <v>7</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -5143,11 +5153,11 @@
         <v>7</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -5160,11 +5170,11 @@
         <v>7</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -5177,11 +5187,11 @@
         <v>7</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -5194,11 +5204,11 @@
         <v>7</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -5211,11 +5221,11 @@
         <v>7</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -5228,11 +5238,11 @@
         <v>7</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -5245,11 +5255,11 @@
         <v>7</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -5262,11 +5272,11 @@
         <v>7</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -5279,11 +5289,11 @@
         <v>7</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -5296,11 +5306,11 @@
         <v>7</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -5313,11 +5323,11 @@
         <v>7</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -5330,11 +5340,11 @@
         <v>7</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -5347,11 +5357,11 @@
         <v>7</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -5364,11 +5374,11 @@
         <v>7</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -5381,11 +5391,11 @@
         <v>7</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -5398,11 +5408,11 @@
         <v>7</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -5415,11 +5425,11 @@
         <v>7</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -5432,11 +5442,11 @@
         <v>7</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -5449,11 +5459,11 @@
         <v>7</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -5466,11 +5476,11 @@
         <v>7</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -5483,11 +5493,11 @@
         <v>7</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -5500,11 +5510,11 @@
         <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -5517,11 +5527,11 @@
         <v>7</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -5534,11 +5544,11 @@
         <v>7</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -5551,11 +5561,11 @@
         <v>7</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -5568,11 +5578,11 @@
         <v>7</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -5585,11 +5595,11 @@
         <v>7</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -5602,11 +5612,11 @@
         <v>7</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -5619,11 +5629,11 @@
         <v>7</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -5636,11 +5646,11 @@
         <v>7</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -5653,11 +5663,11 @@
         <v>7</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -5670,11 +5680,11 @@
         <v>7</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -5687,7 +5697,7 @@
         <v>7</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5702,7 +5712,7 @@
         <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5717,7 +5727,7 @@
         <v>7</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5732,11 +5742,11 @@
         <v>7</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -5749,11 +5759,11 @@
         <v>7</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -5766,11 +5776,11 @@
         <v>7</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -5783,11 +5793,11 @@
         <v>7</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -5800,11 +5810,11 @@
         <v>7</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -5817,11 +5827,11 @@
         <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -5834,11 +5844,11 @@
         <v>7</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -5851,7 +5861,7 @@
         <v>7</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="4" t="s">
@@ -5868,7 +5878,7 @@
         <v>7</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="4" t="s">
@@ -5885,7 +5895,7 @@
         <v>7</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="4" t="s">
@@ -5902,7 +5912,7 @@
         <v>7</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="4" t="s">
@@ -5919,7 +5929,7 @@
         <v>7</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="4" t="s">
@@ -5936,11 +5946,11 @@
         <v>7</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -5953,7 +5963,7 @@
         <v>7</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -5968,11 +5978,11 @@
         <v>7</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -5985,11 +5995,11 @@
         <v>7</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -6002,7 +6012,7 @@
         <v>7</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="4" t="s">
@@ -6019,11 +6029,11 @@
         <v>7</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -6036,7 +6046,7 @@
         <v>7</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="4" t="s">
@@ -6053,11 +6063,11 @@
         <v>7</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
@@ -6070,11 +6080,11 @@
         <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -6087,11 +6097,11 @@
         <v>7</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -6104,11 +6114,11 @@
         <v>7</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -6121,11 +6131,11 @@
         <v>7</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -6138,11 +6148,11 @@
         <v>7</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -6155,11 +6165,11 @@
         <v>7</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -6172,11 +6182,11 @@
         <v>7</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -6189,11 +6199,11 @@
         <v>7</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -6206,11 +6216,11 @@
         <v>7</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -6223,11 +6233,11 @@
         <v>7</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -6240,11 +6250,11 @@
         <v>7</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -6257,11 +6267,11 @@
         <v>7</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
@@ -6274,11 +6284,11 @@
         <v>7</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -6291,11 +6301,11 @@
         <v>7</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -6308,7 +6318,7 @@
         <v>7</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="4" t="s">
@@ -6325,11 +6335,11 @@
         <v>7</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -6342,7 +6352,7 @@
         <v>7</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -6357,11 +6367,11 @@
         <v>7</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -6374,11 +6384,11 @@
         <v>7</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -6391,7 +6401,7 @@
         <v>7</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -6406,11 +6416,11 @@
         <v>7</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -6423,11 +6433,11 @@
         <v>7</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -6440,11 +6450,11 @@
         <v>7</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -6457,11 +6467,11 @@
         <v>7</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
@@ -6474,11 +6484,11 @@
         <v>7</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -6491,11 +6501,11 @@
         <v>7</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
@@ -6508,7 +6518,7 @@
         <v>7</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -6523,7 +6533,7 @@
         <v>7</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -6538,11 +6548,11 @@
         <v>7</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -6555,11 +6565,11 @@
         <v>7</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -6572,11 +6582,11 @@
         <v>7</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
@@ -6589,11 +6599,11 @@
         <v>7</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -6606,11 +6616,11 @@
         <v>7</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
@@ -6623,11 +6633,11 @@
         <v>7</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -6640,11 +6650,11 @@
         <v>7</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -6657,11 +6667,11 @@
         <v>7</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -6674,11 +6684,11 @@
         <v>7</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
@@ -6691,7 +6701,7 @@
         <v>7</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -6706,11 +6716,11 @@
         <v>7</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
@@ -6723,11 +6733,11 @@
         <v>7</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -6740,7 +6750,7 @@
         <v>7</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -6755,10 +6765,10 @@
         <v>7</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
@@ -6771,10 +6781,10 @@
         <v>7</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
@@ -6787,10 +6797,10 @@
         <v>7</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -6803,10 +6813,10 @@
         <v>7</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
@@ -6819,10 +6829,10 @@
         <v>7</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
@@ -6835,7 +6845,7 @@
         <v>7</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>9</v>
@@ -6851,10 +6861,10 @@
         <v>7</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
@@ -6867,10 +6877,10 @@
         <v>7</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
@@ -6883,10 +6893,10 @@
         <v>7</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
@@ -6899,10 +6909,10 @@
         <v>7</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
@@ -6915,10 +6925,10 @@
         <v>7</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
@@ -6931,11 +6941,11 @@
         <v>7</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
@@ -6948,11 +6958,11 @@
         <v>7</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D230" s="3"/>
       <c r="E230" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
@@ -6965,11 +6975,11 @@
         <v>7</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
@@ -6982,11 +6992,11 @@
         <v>7</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
@@ -6999,11 +7009,11 @@
         <v>7</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
@@ -7016,11 +7026,11 @@
         <v>7</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
@@ -7033,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D235" s="3"/>
       <c r="E235" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
@@ -7050,11 +7060,11 @@
         <v>7</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
@@ -7067,11 +7077,11 @@
         <v>7</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D237" s="3"/>
       <c r="E237" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
@@ -7084,11 +7094,11 @@
         <v>7</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
@@ -7101,7 +7111,7 @@
         <v>7</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="4" t="s">
@@ -7118,7 +7128,7 @@
         <v>7</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D240" s="3"/>
       <c r="E240" s="2"/>
@@ -7133,7 +7143,7 @@
         <v>7</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -7148,11 +7158,11 @@
         <v>7</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D242" s="3"/>
       <c r="E242" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
@@ -7165,11 +7175,11 @@
         <v>7</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D243" s="3"/>
       <c r="E243" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
@@ -7182,11 +7192,11 @@
         <v>7</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D244" s="3"/>
       <c r="E244" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
@@ -7199,11 +7209,11 @@
         <v>7</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
@@ -7216,7 +7226,7 @@
         <v>7</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D246" s="3"/>
       <c r="E246" s="4" t="s">
@@ -7233,11 +7243,11 @@
         <v>7</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D247" s="3"/>
       <c r="E247" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
@@ -7250,11 +7260,11 @@
         <v>7</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D248" s="3"/>
       <c r="E248" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
@@ -7267,11 +7277,11 @@
         <v>7</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D249" s="3"/>
       <c r="E249" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
@@ -7284,11 +7294,11 @@
         <v>7</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D250" s="3"/>
       <c r="E250" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
@@ -7301,11 +7311,11 @@
         <v>7</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D251" s="3"/>
       <c r="E251" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
@@ -7318,11 +7328,11 @@
         <v>7</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D252" s="3"/>
       <c r="E252" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
@@ -7335,11 +7345,11 @@
         <v>7</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D253" s="3"/>
       <c r="E253" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
@@ -7352,11 +7362,11 @@
         <v>7</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
@@ -7369,11 +7379,11 @@
         <v>7</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D255" s="3"/>
       <c r="E255" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
@@ -7386,11 +7396,11 @@
         <v>7</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D256" s="3"/>
       <c r="E256" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
@@ -7403,11 +7413,11 @@
         <v>7</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D257" s="3"/>
       <c r="E257" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
@@ -7420,11 +7430,11 @@
         <v>7</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
@@ -7437,11 +7447,11 @@
         <v>7</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D259" s="3"/>
       <c r="E259" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
@@ -7454,11 +7464,11 @@
         <v>7</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D260" s="3"/>
       <c r="E260" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
@@ -7471,11 +7481,11 @@
         <v>7</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
@@ -7488,11 +7498,11 @@
         <v>7</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D262" s="3"/>
       <c r="E262" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
@@ -7505,11 +7515,11 @@
         <v>7</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
@@ -7522,11 +7532,11 @@
         <v>7</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
@@ -7539,11 +7549,11 @@
         <v>7</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D265" s="3"/>
       <c r="E265" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
@@ -7556,11 +7566,11 @@
         <v>7</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D266" s="3"/>
       <c r="E266" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
@@ -7573,7 +7583,7 @@
         <v>7</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -7588,11 +7598,11 @@
         <v>7</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
@@ -7605,7 +7615,7 @@
         <v>7</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D269" s="3"/>
       <c r="E269" s="2" t="s">
@@ -7622,7 +7632,7 @@
         <v>7</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" s="2" t="s">
@@ -7639,7 +7649,7 @@
         <v>7</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" s="2" t="s">
@@ -7656,7 +7666,7 @@
         <v>7</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D272" s="3"/>
       <c r="E272" s="2" t="s">
@@ -7673,7 +7683,7 @@
         <v>7</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D273" s="3"/>
       <c r="E273" s="2" t="s">
@@ -7690,11 +7700,11 @@
         <v>7</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D274" s="3"/>
       <c r="E274" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
@@ -7707,11 +7717,11 @@
         <v>7</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D275" s="3"/>
       <c r="E275" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
@@ -7724,11 +7734,11 @@
         <v>7</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D276" s="3"/>
       <c r="E276" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
@@ -7741,11 +7751,11 @@
         <v>7</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D277" s="3"/>
       <c r="E277" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
@@ -7758,11 +7768,11 @@
         <v>7</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D278" s="3"/>
       <c r="E278" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
@@ -7775,11 +7785,11 @@
         <v>7</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D279" s="3"/>
       <c r="E279" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
@@ -7792,11 +7802,11 @@
         <v>7</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D280" s="3"/>
       <c r="E280" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
@@ -7809,11 +7819,11 @@
         <v>7</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D281" s="3"/>
       <c r="E281" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
@@ -7826,11 +7836,11 @@
         <v>7</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D282" s="3"/>
       <c r="E282" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
@@ -7843,11 +7853,11 @@
         <v>7</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D283" s="3"/>
       <c r="E283" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
@@ -7860,11 +7870,11 @@
         <v>7</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D284" s="3"/>
       <c r="E284" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
@@ -7877,11 +7887,11 @@
         <v>7</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D285" s="3"/>
       <c r="E285" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
@@ -7894,11 +7904,11 @@
         <v>7</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D286" s="3"/>
       <c r="E286" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
@@ -7911,11 +7921,11 @@
         <v>7</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D287" s="3"/>
       <c r="E287" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
@@ -7928,11 +7938,11 @@
         <v>7</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D288" s="3"/>
       <c r="E288" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
@@ -7945,11 +7955,11 @@
         <v>7</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D289" s="3"/>
       <c r="E289" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
@@ -7962,11 +7972,11 @@
         <v>7</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D290" s="3"/>
       <c r="E290" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
@@ -7979,11 +7989,11 @@
         <v>7</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D291" s="3"/>
       <c r="E291" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
@@ -7996,11 +8006,11 @@
         <v>7</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D292" s="3"/>
       <c r="E292" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
@@ -8013,11 +8023,11 @@
         <v>7</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D293" s="3"/>
       <c r="E293" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
@@ -8030,11 +8040,11 @@
         <v>7</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D294" s="3"/>
       <c r="E294" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
@@ -8047,11 +8057,11 @@
         <v>7</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D295" s="3"/>
       <c r="E295" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
@@ -8064,11 +8074,11 @@
         <v>7</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D296" s="3"/>
       <c r="E296" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
@@ -8081,7 +8091,7 @@
         <v>7</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -8096,11 +8106,11 @@
         <v>7</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
@@ -8113,11 +8123,11 @@
         <v>7</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D299" s="3"/>
       <c r="E299" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
@@ -8130,11 +8140,11 @@
         <v>7</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D300" s="3"/>
       <c r="E300" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
@@ -8147,7 +8157,7 @@
         <v>7</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -8162,11 +8172,11 @@
         <v>7</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D302" s="3"/>
       <c r="E302" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
@@ -8179,7 +8189,7 @@
         <v>7</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303" s="3" t="s">
@@ -8196,11 +8206,11 @@
         <v>7</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D304" s="3"/>
       <c r="E304" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
@@ -8213,11 +8223,11 @@
         <v>7</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D305" s="3"/>
       <c r="E305" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
@@ -8230,11 +8240,11 @@
         <v>7</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D306" s="3"/>
       <c r="E306" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
@@ -8247,7 +8257,7 @@
         <v>7</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D307" s="3"/>
       <c r="E307" s="3" t="s">
@@ -8264,7 +8274,7 @@
         <v>7</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D308" s="3"/>
       <c r="E308" s="3" t="s">
@@ -8281,7 +8291,7 @@
         <v>7</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309" s="3" t="s">
@@ -8298,7 +8308,7 @@
         <v>7</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D310" s="3"/>
       <c r="E310" s="3" t="s">
@@ -8315,7 +8325,7 @@
         <v>7</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D311" s="3"/>
       <c r="E311" s="3" t="s">
@@ -8332,7 +8342,7 @@
         <v>7</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D312" s="3"/>
       <c r="E312" s="3" t="s">
@@ -8349,7 +8359,7 @@
         <v>7</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D313" s="3"/>
       <c r="E313" s="3" t="s">
@@ -8366,7 +8376,7 @@
         <v>7</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D314" s="3"/>
       <c r="E314" s="3" t="s">
@@ -8383,7 +8393,7 @@
         <v>7</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -8398,11 +8408,11 @@
         <v>7</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D316" s="3"/>
       <c r="E316" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
@@ -8415,11 +8425,11 @@
         <v>7</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D317" s="3"/>
       <c r="E317" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
@@ -8432,11 +8442,11 @@
         <v>7</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -8449,11 +8459,11 @@
         <v>7</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D319" s="3"/>
       <c r="E319" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
@@ -8466,11 +8476,11 @@
         <v>7</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D320" s="3"/>
       <c r="E320" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
@@ -8483,11 +8493,11 @@
         <v>7</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
@@ -8500,11 +8510,11 @@
         <v>7</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D322" s="3"/>
       <c r="E322" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
@@ -8517,11 +8527,11 @@
         <v>7</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
@@ -8534,11 +8544,11 @@
         <v>7</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D324" s="3"/>
       <c r="E324" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
@@ -8551,7 +8561,7 @@
         <v>7</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D325" s="3"/>
       <c r="E325" s="2"/>
@@ -8566,11 +8576,11 @@
         <v>7</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D326" s="3"/>
       <c r="E326" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
@@ -8583,7 +8593,7 @@
         <v>7</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D327" s="3"/>
       <c r="E327" s="4" t="s">
@@ -8600,11 +8610,11 @@
         <v>7</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D328" s="3"/>
       <c r="E328" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
@@ -8617,11 +8627,11 @@
         <v>7</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
@@ -8634,7 +8644,7 @@
         <v>7</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -8649,11 +8659,11 @@
         <v>7</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D331" s="3"/>
       <c r="E331" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
@@ -8666,11 +8676,11 @@
         <v>7</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D332" s="3"/>
       <c r="E332" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -8683,7 +8693,7 @@
         <v>7</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D333" s="3"/>
       <c r="E333" s="4" t="s">
@@ -8700,11 +8710,11 @@
         <v>7</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D334" s="3"/>
       <c r="E334" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
@@ -8717,7 +8727,7 @@
         <v>7</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D335" s="3"/>
       <c r="E335" s="2"/>
@@ -8732,11 +8742,11 @@
         <v>7</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D336" s="3"/>
       <c r="E336" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
@@ -8749,11 +8759,11 @@
         <v>7</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D337" s="3"/>
       <c r="E337" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
@@ -8766,11 +8776,11 @@
         <v>7</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D338" s="3"/>
       <c r="E338" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
@@ -8783,11 +8793,11 @@
         <v>7</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D339" s="3"/>
       <c r="E339" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
@@ -8800,11 +8810,11 @@
         <v>7</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D340" s="3"/>
       <c r="E340" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
@@ -8817,7 +8827,7 @@
         <v>7</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D341" s="3"/>
       <c r="E341" s="2"/>
@@ -8832,11 +8842,11 @@
         <v>7</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D342" s="3"/>
       <c r="E342" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
@@ -8849,7 +8859,7 @@
         <v>7</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D343" s="3"/>
       <c r="E343" s="4" t="s">
@@ -8866,11 +8876,11 @@
         <v>7</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D344" s="3"/>
       <c r="E344" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
@@ -8883,7 +8893,7 @@
         <v>7</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D345" s="3"/>
       <c r="E345" s="2"/>
@@ -8898,11 +8908,11 @@
         <v>7</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D346" s="3"/>
       <c r="E346" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
@@ -8915,7 +8925,7 @@
         <v>7</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D347" s="3"/>
       <c r="E347" s="4" t="s">
@@ -8932,7 +8942,7 @@
         <v>7</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D348" s="3"/>
       <c r="E348" s="4" t="s">
@@ -8949,7 +8959,7 @@
         <v>7</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D349" s="3"/>
       <c r="E349" s="4" t="s">
@@ -8966,7 +8976,7 @@
         <v>7</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D350" s="3"/>
       <c r="E350" s="4" t="s">
@@ -8983,7 +8993,7 @@
         <v>7</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D351" s="3"/>
       <c r="E351" s="4" t="s">
@@ -9000,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D352" s="3"/>
       <c r="E352" s="4" t="s">
@@ -9017,7 +9027,7 @@
         <v>7</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D353" s="3"/>
       <c r="E353" s="4" t="s">
@@ -9034,7 +9044,7 @@
         <v>7</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D354" s="3"/>
       <c r="E354" s="4" t="s">
@@ -9051,7 +9061,7 @@
         <v>7</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D355" s="3"/>
       <c r="E355" s="4" t="s">
@@ -9068,7 +9078,7 @@
         <v>7</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D356" s="3"/>
       <c r="E356" s="4" t="s">
@@ -9085,7 +9095,7 @@
         <v>7</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D357" s="3"/>
       <c r="E357" s="4" t="s">
@@ -9102,7 +9112,7 @@
         <v>7</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D358" s="3"/>
       <c r="E358" s="4" t="s">
@@ -9119,7 +9129,7 @@
         <v>7</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D359" s="3"/>
       <c r="E359" s="4" t="s">
@@ -9136,7 +9146,7 @@
         <v>7</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D360" s="3"/>
       <c r="E360" s="4" t="s">
@@ -9153,7 +9163,7 @@
         <v>7</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D361" s="3"/>
       <c r="E361" s="4" t="s">
@@ -9170,7 +9180,7 @@
         <v>7</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D362" s="3"/>
       <c r="E362" s="4" t="s">
@@ -9187,7 +9197,7 @@
         <v>7</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D363" s="3"/>
       <c r="E363" s="4" t="s">
@@ -9204,7 +9214,7 @@
         <v>7</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D364" s="3"/>
       <c r="E364" s="4" t="s">
@@ -9221,11 +9231,11 @@
         <v>7</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
@@ -9238,11 +9248,11 @@
         <v>7</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D366" s="3"/>
       <c r="E366" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
@@ -9255,11 +9265,11 @@
         <v>7</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D367" s="3"/>
       <c r="E367" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
@@ -9272,7 +9282,7 @@
         <v>7</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -9287,11 +9297,11 @@
         <v>7</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D369" s="3"/>
       <c r="E369" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
@@ -9304,7 +9314,7 @@
         <v>7</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D370" s="3"/>
       <c r="E370" s="4" t="s">
@@ -9321,11 +9331,11 @@
         <v>7</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D371" s="3"/>
       <c r="E371" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
@@ -9338,11 +9348,11 @@
         <v>7</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D372" s="3"/>
       <c r="E372" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
@@ -9355,11 +9365,11 @@
         <v>7</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D373" s="3"/>
       <c r="E373" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
@@ -9372,11 +9382,11 @@
         <v>7</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D374" s="3"/>
       <c r="E374" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
@@ -9389,11 +9399,11 @@
         <v>7</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D375" s="3"/>
       <c r="E375" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
@@ -9406,11 +9416,11 @@
         <v>7</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D376" s="3"/>
       <c r="E376" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
@@ -9423,7 +9433,7 @@
         <v>7</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D377" s="3"/>
       <c r="E377" s="4" t="s">
@@ -9440,7 +9450,7 @@
         <v>7</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D378" s="3"/>
       <c r="E378" s="4" t="s">
@@ -9457,11 +9467,11 @@
         <v>7</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D379" s="3"/>
       <c r="E379" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
@@ -9474,11 +9484,11 @@
         <v>7</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D380" s="3"/>
       <c r="E380" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
@@ -9491,11 +9501,11 @@
         <v>7</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D381" s="3"/>
       <c r="E381" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
@@ -9508,11 +9518,11 @@
         <v>7</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D382" s="3"/>
       <c r="E382" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
@@ -9525,11 +9535,11 @@
         <v>7</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D383" s="3"/>
       <c r="E383" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
@@ -9542,11 +9552,11 @@
         <v>7</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
@@ -9559,11 +9569,11 @@
         <v>7</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D385" s="3"/>
       <c r="E385" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
@@ -9576,11 +9586,11 @@
         <v>7</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D386" s="3"/>
       <c r="E386" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
@@ -9593,7 +9603,7 @@
         <v>7</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -9608,11 +9618,11 @@
         <v>7</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D388" s="3"/>
       <c r="E388" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
@@ -9625,11 +9635,11 @@
         <v>7</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D389" s="3"/>
       <c r="E389" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
@@ -9642,11 +9652,11 @@
         <v>7</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D390" s="3"/>
       <c r="E390" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
@@ -9659,7 +9669,7 @@
         <v>7</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D391" s="3"/>
       <c r="E391" s="4" t="s">
@@ -9676,11 +9686,11 @@
         <v>7</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D392" s="3"/>
       <c r="E392" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
@@ -9693,7 +9703,7 @@
         <v>7</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -9708,11 +9718,11 @@
         <v>7</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D394" s="3"/>
       <c r="E394" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
@@ -9725,11 +9735,11 @@
         <v>7</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D395" s="3"/>
       <c r="E395" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
@@ -9742,11 +9752,11 @@
         <v>7</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D396" s="3"/>
       <c r="E396" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
@@ -9759,11 +9769,11 @@
         <v>7</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D397" s="3"/>
       <c r="E397" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
@@ -9776,7 +9786,7 @@
         <v>7</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D398" s="3"/>
       <c r="E398" s="2"/>
@@ -9791,11 +9801,11 @@
         <v>7</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D399" s="3"/>
       <c r="E399" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
@@ -9808,11 +9818,11 @@
         <v>7</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D400" s="3"/>
       <c r="E400" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
@@ -9825,7 +9835,7 @@
         <v>7</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D401" s="3"/>
       <c r="E401" s="2"/>
@@ -9840,11 +9850,11 @@
         <v>7</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D402" s="3"/>
       <c r="E402" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
@@ -9857,11 +9867,11 @@
         <v>7</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D403" s="3"/>
       <c r="E403" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
@@ -9874,11 +9884,11 @@
         <v>7</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D404" s="3"/>
       <c r="E404" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
@@ -9891,7 +9901,7 @@
         <v>7</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -9906,11 +9916,11 @@
         <v>7</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D406" s="3"/>
       <c r="E406" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
@@ -9923,11 +9933,11 @@
         <v>7</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D407" s="3"/>
       <c r="E407" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
@@ -9940,11 +9950,11 @@
         <v>7</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D408" s="3"/>
       <c r="E408" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
@@ -9957,7 +9967,7 @@
         <v>7</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -9972,7 +9982,7 @@
         <v>7</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -9987,7 +9997,7 @@
         <v>7</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -10002,7 +10012,7 @@
         <v>7</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -10017,7 +10027,7 @@
         <v>7</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -10032,7 +10042,7 @@
         <v>7</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -10047,7 +10057,7 @@
         <v>7</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -10062,7 +10072,7 @@
         <v>7</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -10077,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -10092,11 +10102,11 @@
         <v>7</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D418" s="3"/>
       <c r="E418" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
@@ -10109,7 +10119,7 @@
         <v>7</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -10124,11 +10134,11 @@
         <v>7</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D420" s="3"/>
       <c r="E420" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
@@ -10141,7 +10151,7 @@
         <v>7</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -10156,11 +10166,11 @@
         <v>7</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D422" s="3"/>
       <c r="E422" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
@@ -10173,11 +10183,11 @@
         <v>7</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D423" s="3"/>
       <c r="E423" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
@@ -10190,11 +10200,11 @@
         <v>7</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D424" s="3"/>
       <c r="E424" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
@@ -10207,11 +10217,11 @@
         <v>7</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D425" s="3"/>
       <c r="E425" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
@@ -10224,11 +10234,11 @@
         <v>7</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D426" s="3"/>
       <c r="E426" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
@@ -10241,11 +10251,11 @@
         <v>7</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D427" s="3"/>
       <c r="E427" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
@@ -10258,7 +10268,7 @@
         <v>7</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D428" s="3"/>
       <c r="E428" s="4"/>
@@ -10273,11 +10283,11 @@
         <v>7</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D429" s="3"/>
       <c r="E429" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
@@ -10290,7 +10300,7 @@
         <v>7</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -10305,11 +10315,11 @@
         <v>7</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D431" s="3"/>
       <c r="E431" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
@@ -10322,11 +10332,11 @@
         <v>7</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D432" s="3"/>
       <c r="E432" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
@@ -10339,11 +10349,11 @@
         <v>7</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D433" s="3"/>
       <c r="E433" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
@@ -10356,11 +10366,11 @@
         <v>7</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D434" s="3"/>
       <c r="E434" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
@@ -10373,7 +10383,7 @@
         <v>7</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -10388,11 +10398,11 @@
         <v>7</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D436" s="3"/>
       <c r="E436" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
@@ -10405,7 +10415,7 @@
         <v>7</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -10420,11 +10430,11 @@
         <v>7</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D438" s="3"/>
       <c r="E438" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
@@ -10437,11 +10447,11 @@
         <v>7</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D439" s="3"/>
       <c r="E439" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
@@ -10454,11 +10464,11 @@
         <v>7</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D440" s="3"/>
       <c r="E440" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
@@ -10471,7 +10481,7 @@
         <v>7</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D441" s="3"/>
       <c r="E441" s="4" t="s">
@@ -10488,7 +10498,7 @@
         <v>7</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D442" s="3"/>
       <c r="E442" s="4" t="s">
@@ -10505,7 +10515,7 @@
         <v>7</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D443" s="3"/>
       <c r="E443" s="4" t="s">
@@ -10522,7 +10532,7 @@
         <v>7</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D444" s="3"/>
       <c r="E444" s="4" t="s">
@@ -10539,7 +10549,7 @@
         <v>7</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D445" s="3"/>
       <c r="E445" s="4" t="s">
@@ -10556,7 +10566,7 @@
         <v>7</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D446" s="3"/>
       <c r="E446" s="4" t="s">
@@ -10573,7 +10583,7 @@
         <v>7</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D447" s="3"/>
       <c r="E447" s="4" t="s">
@@ -10590,7 +10600,7 @@
         <v>7</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D448" s="3"/>
       <c r="E448" s="4" t="s">
@@ -10607,7 +10617,7 @@
         <v>7</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D449" s="3"/>
       <c r="E449" s="4" t="s">
@@ -10624,7 +10634,7 @@
         <v>7</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D450" s="3"/>
       <c r="E450" s="4" t="s">
@@ -10641,7 +10651,7 @@
         <v>7</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D451" s="3"/>
       <c r="E451" s="4" t="s">
@@ -10658,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D452" s="3"/>
       <c r="E452" s="4" t="s">
@@ -10675,7 +10685,7 @@
         <v>7</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D453" s="3"/>
       <c r="E453" s="4" t="s">
@@ -10692,7 +10702,7 @@
         <v>7</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D454" s="3"/>
       <c r="E454" s="4" t="s">
@@ -10709,7 +10719,7 @@
         <v>7</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D455" s="3"/>
       <c r="E455" s="4" t="s">
@@ -10726,7 +10736,7 @@
         <v>7</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D456" s="3"/>
       <c r="E456" s="4" t="s">
@@ -10743,7 +10753,7 @@
         <v>7</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D457" s="3"/>
       <c r="E457" s="4" t="s">
@@ -10760,7 +10770,7 @@
         <v>7</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D458" s="3"/>
       <c r="E458" s="4" t="s">
@@ -10777,7 +10787,7 @@
         <v>7</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D459" s="3"/>
       <c r="E459" s="4" t="s">
@@ -10794,7 +10804,7 @@
         <v>7</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D460" s="3"/>
       <c r="E460" s="4" t="s">
@@ -10811,7 +10821,7 @@
         <v>7</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D461" s="3"/>
       <c r="E461" s="4" t="s">
@@ -10828,7 +10838,7 @@
         <v>7</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D462" s="3"/>
       <c r="E462" s="4" t="s">
@@ -10845,7 +10855,7 @@
         <v>7</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D463" s="3"/>
       <c r="E463" s="4" t="s">
@@ -10862,7 +10872,7 @@
         <v>7</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D464" s="3"/>
       <c r="E464" s="4" t="s">
@@ -10879,11 +10889,11 @@
         <v>7</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D465" s="3"/>
       <c r="E465" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
@@ -10896,11 +10906,11 @@
         <v>7</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D466" s="3"/>
       <c r="E466" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
@@ -10913,7 +10923,7 @@
         <v>7</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -10928,11 +10938,11 @@
         <v>7</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D468" s="3"/>
       <c r="E468" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
@@ -10945,11 +10955,11 @@
         <v>7</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D469" s="3"/>
       <c r="E469" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
@@ -10962,11 +10972,11 @@
         <v>7</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D470" s="3"/>
       <c r="E470" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
@@ -10979,11 +10989,11 @@
         <v>7</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D471" s="3"/>
       <c r="E471" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
@@ -10996,11 +11006,11 @@
         <v>7</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D472" s="3"/>
       <c r="E472" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
@@ -11013,11 +11023,11 @@
         <v>7</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D473" s="3"/>
       <c r="E473" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
@@ -11030,7 +11040,7 @@
         <v>7</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -11045,11 +11055,11 @@
         <v>7</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D475" s="3"/>
       <c r="E475" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
@@ -11062,11 +11072,11 @@
         <v>7</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D476" s="3"/>
       <c r="E476" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
@@ -11079,7 +11089,7 @@
         <v>7</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -11094,11 +11104,11 @@
         <v>7</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D478" s="3"/>
       <c r="E478" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
@@ -11111,11 +11121,11 @@
         <v>7</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D479" s="3"/>
       <c r="E479" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
@@ -11128,7 +11138,7 @@
         <v>7</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D480" s="3"/>
       <c r="E480" s="2"/>
@@ -11143,7 +11153,7 @@
         <v>7</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -11158,7 +11168,7 @@
         <v>7</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -11173,7 +11183,7 @@
         <v>7</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -11188,7 +11198,7 @@
         <v>7</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D484" s="3"/>
       <c r="E484" s="4" t="s">
@@ -11205,7 +11215,7 @@
         <v>7</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D485" s="3"/>
       <c r="E485" s="4" t="s">
@@ -11222,7 +11232,7 @@
         <v>7</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D486" s="3"/>
       <c r="E486" s="4" t="s">
@@ -11239,7 +11249,7 @@
         <v>7</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D487" s="3"/>
       <c r="E487" s="4" t="s">
@@ -11256,7 +11266,7 @@
         <v>7</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D488" s="3"/>
       <c r="E488" s="4" t="s">
@@ -11273,7 +11283,7 @@
         <v>7</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D489" s="3"/>
       <c r="E489" s="2"/>
@@ -11288,11 +11298,11 @@
         <v>7</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D490" s="3"/>
       <c r="E490" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
@@ -11305,11 +11315,11 @@
         <v>7</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D491" s="3"/>
       <c r="E491" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
@@ -11322,11 +11332,11 @@
         <v>7</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D492" s="3"/>
       <c r="E492" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
@@ -11339,11 +11349,11 @@
         <v>7</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D493" s="3"/>
       <c r="E493" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
@@ -11356,11 +11366,11 @@
         <v>7</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D494" s="3"/>
       <c r="E494" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
@@ -11373,11 +11383,11 @@
         <v>7</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D495" s="3"/>
       <c r="E495" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
@@ -11390,11 +11400,11 @@
         <v>7</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D496" s="3"/>
       <c r="E496" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
@@ -11407,11 +11417,11 @@
         <v>7</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D497" s="3"/>
       <c r="E497" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
@@ -11424,11 +11434,11 @@
         <v>7</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D498" s="3"/>
       <c r="E498" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
@@ -11441,11 +11451,11 @@
         <v>7</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D499" s="3"/>
       <c r="E499" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
@@ -11458,11 +11468,11 @@
         <v>7</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D500" s="3"/>
       <c r="E500" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
@@ -11475,11 +11485,11 @@
         <v>7</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D501" s="3"/>
       <c r="E501" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
@@ -11492,11 +11502,11 @@
         <v>7</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D502" s="3"/>
       <c r="E502" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
@@ -11509,11 +11519,11 @@
         <v>7</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D503" s="3"/>
       <c r="E503" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
@@ -11526,11 +11536,11 @@
         <v>7</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D504" s="3"/>
       <c r="E504" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
@@ -11543,11 +11553,11 @@
         <v>7</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D505" s="3"/>
       <c r="E505" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
@@ -11560,7 +11570,7 @@
         <v>7</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -11575,11 +11585,11 @@
         <v>7</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D507" s="3"/>
       <c r="E507" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
@@ -11592,11 +11602,11 @@
         <v>7</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D508" s="3"/>
       <c r="E508" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
@@ -11609,11 +11619,11 @@
         <v>7</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D509" s="3"/>
       <c r="E509" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
@@ -11626,11 +11636,11 @@
         <v>7</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D510" s="3"/>
       <c r="E510" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
@@ -11643,11 +11653,11 @@
         <v>7</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D511" s="3"/>
       <c r="E511" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
@@ -11660,11 +11670,11 @@
         <v>7</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D512" s="3"/>
       <c r="E512" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
@@ -11677,11 +11687,11 @@
         <v>7</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D513" s="3"/>
       <c r="E513" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
@@ -11694,11 +11704,11 @@
         <v>7</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D514" s="3"/>
       <c r="E514" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
@@ -11711,11 +11721,11 @@
         <v>7</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D515" s="3"/>
       <c r="E515" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
@@ -11728,11 +11738,11 @@
         <v>7</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D516" s="3"/>
       <c r="E516" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
@@ -11745,11 +11755,11 @@
         <v>7</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D517" s="3"/>
       <c r="E517" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
@@ -11762,11 +11772,11 @@
         <v>7</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D518" s="3"/>
       <c r="E518" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
@@ -11779,11 +11789,11 @@
         <v>7</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D519" s="3"/>
       <c r="E519" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
@@ -11796,11 +11806,11 @@
         <v>7</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D520" s="3"/>
       <c r="E520" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
@@ -11813,11 +11823,11 @@
         <v>7</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D521" s="3"/>
       <c r="E521" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
@@ -11830,11 +11840,11 @@
         <v>7</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D522" s="3"/>
       <c r="E522" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
@@ -11847,11 +11857,11 @@
         <v>7</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D523" s="3"/>
       <c r="E523" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
@@ -11864,11 +11874,11 @@
         <v>7</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D524" s="3"/>
       <c r="E524" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
@@ -11881,7 +11891,7 @@
         <v>7</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D525" s="3"/>
       <c r="E525" s="3" t="s">
@@ -11898,7 +11908,7 @@
         <v>7</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -11913,7 +11923,7 @@
         <v>7</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D527" s="3"/>
       <c r="E527" s="3" t="s">
@@ -11930,11 +11940,11 @@
         <v>7</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D528" s="3"/>
       <c r="E528" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
@@ -11947,11 +11957,11 @@
         <v>7</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D529" s="3"/>
       <c r="E529" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
@@ -11964,11 +11974,11 @@
         <v>7</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D530" s="3"/>
       <c r="E530" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
@@ -11981,7 +11991,7 @@
         <v>7</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -11996,11 +12006,11 @@
         <v>7</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D532" s="3"/>
       <c r="E532" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
@@ -12013,11 +12023,11 @@
         <v>7</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D533" s="3"/>
       <c r="E533" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
@@ -12030,11 +12040,11 @@
         <v>7</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D534" s="3"/>
       <c r="E534" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
@@ -12047,11 +12057,11 @@
         <v>7</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D535" s="3"/>
       <c r="E535" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
@@ -12064,11 +12074,11 @@
         <v>7</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D536" s="3"/>
       <c r="E536" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
@@ -12081,11 +12091,11 @@
         <v>7</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D537" s="3"/>
       <c r="E537" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
@@ -12098,11 +12108,11 @@
         <v>7</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D538" s="3"/>
       <c r="E538" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
@@ -12115,11 +12125,11 @@
         <v>7</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D539" s="3"/>
       <c r="E539" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
@@ -12132,11 +12142,11 @@
         <v>7</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D540" s="3"/>
       <c r="E540" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
@@ -12149,11 +12159,11 @@
         <v>7</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D541" s="3"/>
       <c r="E541" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
@@ -12166,11 +12176,11 @@
         <v>7</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D542" s="3"/>
       <c r="E542" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
@@ -12183,11 +12193,11 @@
         <v>7</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D543" s="3"/>
       <c r="E543" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
@@ -12200,11 +12210,11 @@
         <v>7</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D544" s="3"/>
       <c r="E544" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
@@ -12217,11 +12227,11 @@
         <v>7</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D545" s="3"/>
       <c r="E545" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
@@ -12234,11 +12244,11 @@
         <v>7</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D546" s="3"/>
       <c r="E546" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
@@ -12251,11 +12261,11 @@
         <v>7</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D547" s="3"/>
       <c r="E547" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
@@ -12268,11 +12278,11 @@
         <v>7</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D548" s="3"/>
       <c r="E548" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
@@ -12285,11 +12295,11 @@
         <v>7</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D549" s="3"/>
       <c r="E549" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
@@ -12302,11 +12312,11 @@
         <v>7</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D550" s="3"/>
       <c r="E550" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
@@ -12319,11 +12329,11 @@
         <v>7</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D551" s="3"/>
       <c r="E551" s="5" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
@@ -12336,11 +12346,11 @@
         <v>7</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D552" s="3"/>
       <c r="E552" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
@@ -12353,11 +12363,11 @@
         <v>7</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D553" s="3"/>
       <c r="E553" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
@@ -12370,11 +12380,11 @@
         <v>7</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D554" s="3"/>
       <c r="E554" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
@@ -12387,11 +12397,11 @@
         <v>7</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D555" s="3"/>
       <c r="E555" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
@@ -12404,7 +12414,7 @@
         <v>7</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
@@ -12419,11 +12429,11 @@
         <v>7</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D557" s="3"/>
       <c r="E557" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
@@ -12436,11 +12446,11 @@
         <v>7</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D558" s="3"/>
       <c r="E558" s="3" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
@@ -12453,11 +12463,11 @@
         <v>7</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D559" s="3"/>
       <c r="E559" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
@@ -12470,11 +12480,11 @@
         <v>7</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D560" s="3"/>
       <c r="E560" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
@@ -12487,11 +12497,11 @@
         <v>7</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D561" s="3"/>
       <c r="E561" s="4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
@@ -12504,7 +12514,7 @@
         <v>7</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D562" s="3"/>
       <c r="E562" s="4" t="s">
@@ -12521,11 +12531,11 @@
         <v>7</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D563" s="3"/>
       <c r="E563" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
@@ -12538,11 +12548,11 @@
         <v>7</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D564" s="3"/>
       <c r="E564" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
@@ -12555,11 +12565,11 @@
         <v>7</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D565" s="3"/>
       <c r="E565" s="4" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
@@ -12572,7 +12582,7 @@
         <v>7</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D566" s="3"/>
       <c r="E566" s="2"/>
@@ -12587,11 +12597,11 @@
         <v>7</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D567" s="3"/>
       <c r="E567" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
@@ -12604,11 +12614,11 @@
         <v>7</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D568" s="3"/>
       <c r="E568" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
@@ -12621,11 +12631,11 @@
         <v>7</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D569" s="3"/>
       <c r="E569" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
@@ -12638,7 +12648,7 @@
         <v>7</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
@@ -12653,11 +12663,11 @@
         <v>7</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D571" s="3"/>
       <c r="E571" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
@@ -12670,7 +12680,7 @@
         <v>7</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
@@ -12685,7 +12695,7 @@
         <v>7</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
@@ -12700,11 +12710,11 @@
         <v>7</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D574" s="3"/>
       <c r="E574" s="4" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
@@ -12717,11 +12727,11 @@
         <v>7</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D575" s="3"/>
       <c r="E575" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
@@ -12734,11 +12744,11 @@
         <v>7</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D576" s="3"/>
       <c r="E576" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
@@ -12751,7 +12761,7 @@
         <v>7</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
@@ -12766,11 +12776,11 @@
         <v>7</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D578" s="3"/>
       <c r="E578" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
@@ -12783,11 +12793,11 @@
         <v>7</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D579" s="3"/>
       <c r="E579" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
@@ -12800,11 +12810,11 @@
         <v>7</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D580" s="3"/>
       <c r="E580" s="4" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
@@ -12817,11 +12827,11 @@
         <v>7</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D581" s="3"/>
       <c r="E581" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
@@ -12834,11 +12844,11 @@
         <v>7</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D582" s="3"/>
       <c r="E582" s="4" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
@@ -12851,11 +12861,11 @@
         <v>7</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D583" s="3"/>
       <c r="E583" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
@@ -12868,11 +12878,11 @@
         <v>7</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D584" s="3"/>
       <c r="E584" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
@@ -12885,11 +12895,11 @@
         <v>7</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D585" s="3"/>
       <c r="E585" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
@@ -12902,11 +12912,11 @@
         <v>7</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D586" s="3"/>
       <c r="E586" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
@@ -12919,11 +12929,11 @@
         <v>7</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D587" s="3"/>
       <c r="E587" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
@@ -12936,11 +12946,11 @@
         <v>7</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D588" s="3"/>
       <c r="E588" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
@@ -12953,11 +12963,11 @@
         <v>7</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D589" s="3"/>
       <c r="E589" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
@@ -12970,11 +12980,11 @@
         <v>7</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D590" s="3"/>
       <c r="E590" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
@@ -12987,11 +12997,11 @@
         <v>7</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D591" s="3"/>
       <c r="E591" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
@@ -13004,11 +13014,11 @@
         <v>7</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D592" s="3"/>
       <c r="E592" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
@@ -13021,11 +13031,11 @@
         <v>7</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D593" s="3"/>
       <c r="E593" s="4" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
@@ -13038,11 +13048,11 @@
         <v>7</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D594" s="3"/>
       <c r="E594" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
@@ -13055,11 +13065,11 @@
         <v>7</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D595" s="3"/>
       <c r="E595" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
@@ -13072,11 +13082,11 @@
         <v>7</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D596" s="3"/>
       <c r="E596" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
@@ -13089,11 +13099,11 @@
         <v>7</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D597" s="3"/>
       <c r="E597" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
@@ -13106,11 +13116,11 @@
         <v>7</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D598" s="3"/>
       <c r="E598" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
@@ -13123,11 +13133,11 @@
         <v>7</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D599" s="3"/>
       <c r="E599" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
@@ -13140,11 +13150,11 @@
         <v>7</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D600" s="3"/>
       <c r="E600" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
@@ -13157,11 +13167,11 @@
         <v>7</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D601" s="3"/>
       <c r="E601" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
@@ -13174,11 +13184,11 @@
         <v>7</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D602" s="3"/>
       <c r="E602" s="4" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
@@ -13191,11 +13201,11 @@
         <v>7</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D603" s="3"/>
       <c r="E603" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
@@ -13208,11 +13218,11 @@
         <v>7</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D604" s="3"/>
       <c r="E604" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
@@ -13225,11 +13235,11 @@
         <v>7</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D605" s="3"/>
       <c r="E605" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F605" s="3"/>
       <c r="G605" s="3"/>
@@ -13242,7 +13252,7 @@
         <v>7</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D606" s="3"/>
       <c r="E606" s="2" t="s">
@@ -13259,7 +13269,7 @@
         <v>7</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D607" s="3"/>
       <c r="E607" s="3" t="s">
@@ -13276,7 +13286,7 @@
         <v>7</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
@@ -13291,7 +13301,7 @@
         <v>7</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
@@ -13306,7 +13316,7 @@
         <v>7</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E610" s="3"/>
     </row>
@@ -13318,7 +13328,7 @@
         <v>7</v>
       </c>
       <c r="C611" s="6" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13329,7 +13339,7 @@
         <v>7</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13340,7 +13350,7 @@
         <v>7</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13351,13 +13361,24 @@
         <v>7</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>973</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -97,7 +97,7 @@
     <t xml:space="preserve">AluminiumIngot</t>
   </si>
   <si>
-    <t xml:space="preserve">CraftingBench(AluminiumOre:1)</t>
+    <t xml:space="preserve">ConcreteFurnace(AluminiumOre:1)</t>
   </si>
   <si>
     <t xml:space="preserve">AluminiumLadder</t>
@@ -3112,9 +3112,9 @@
   <dimension ref="A1:G615"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C88" activeCellId="0" sqref="C88 C348"/>
+      <selection pane="bottomLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3333,7 +3333,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>

--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="974">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -2078,6 +2078,9 @@
   </si>
   <si>
     <t xml:space="preserve">RefinedWood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarpentryBench(Wood:0.1)</t>
   </si>
   <si>
     <t xml:space="preserve">Refrigerator</t>
@@ -3100,9 +3103,9 @@
   <dimension ref="A1:G615"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="M423" activeCellId="0" sqref="M423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9997,7 +10000,7 @@
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
     </row>
-    <row r="421" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="s">
         <v>6</v>
       </c>
@@ -10008,7 +10011,9 @@
         <v>685</v>
       </c>
       <c r="D421" s="3"/>
-      <c r="E421" s="3"/>
+      <c r="E421" s="3" t="s">
+        <v>686</v>
+      </c>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
     </row>
@@ -10020,11 +10025,11 @@
         <v>7</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D422" s="3"/>
       <c r="E422" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
@@ -10037,11 +10042,11 @@
         <v>7</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D423" s="3"/>
       <c r="E423" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
@@ -10054,11 +10059,11 @@
         <v>7</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D424" s="3"/>
       <c r="E424" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
@@ -10071,11 +10076,11 @@
         <v>7</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D425" s="3"/>
       <c r="E425" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
@@ -10088,11 +10093,11 @@
         <v>7</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D426" s="3"/>
       <c r="E426" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
@@ -10105,11 +10110,11 @@
         <v>7</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D427" s="3"/>
       <c r="E427" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
@@ -10122,7 +10127,7 @@
         <v>7</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D428" s="3"/>
       <c r="E428" s="4"/>
@@ -10137,7 +10142,7 @@
         <v>7</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D429" s="3"/>
       <c r="E429" s="3" t="s">
@@ -10154,7 +10159,7 @@
         <v>7</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -10169,11 +10174,11 @@
         <v>7</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D431" s="3"/>
       <c r="E431" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
@@ -10186,11 +10191,11 @@
         <v>7</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D432" s="3"/>
       <c r="E432" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
@@ -10203,11 +10208,11 @@
         <v>7</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D433" s="3"/>
       <c r="E433" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
@@ -10220,11 +10225,11 @@
         <v>7</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D434" s="3"/>
       <c r="E434" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
@@ -10237,7 +10242,7 @@
         <v>7</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -10252,11 +10257,11 @@
         <v>7</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D436" s="3"/>
       <c r="E436" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
@@ -10269,7 +10274,7 @@
         <v>7</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -10284,11 +10289,11 @@
         <v>7</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D438" s="3"/>
       <c r="E438" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
@@ -10301,11 +10306,11 @@
         <v>7</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D439" s="3"/>
       <c r="E439" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
@@ -10318,11 +10323,11 @@
         <v>7</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D440" s="3"/>
       <c r="E440" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
@@ -10335,7 +10340,7 @@
         <v>7</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D441" s="3"/>
       <c r="E441" s="4"/>
@@ -10350,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D442" s="3"/>
       <c r="E442" s="4"/>
@@ -10365,7 +10370,7 @@
         <v>7</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D443" s="3"/>
       <c r="E443" s="4"/>
@@ -10380,7 +10385,7 @@
         <v>7</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D444" s="3"/>
       <c r="E444" s="4"/>
@@ -10395,7 +10400,7 @@
         <v>7</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D445" s="3"/>
       <c r="E445" s="4"/>
@@ -10410,7 +10415,7 @@
         <v>7</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D446" s="3"/>
       <c r="E446" s="4"/>
@@ -10425,7 +10430,7 @@
         <v>7</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D447" s="3"/>
       <c r="E447" s="4"/>
@@ -10440,7 +10445,7 @@
         <v>7</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D448" s="3"/>
       <c r="E448" s="4"/>
@@ -10455,7 +10460,7 @@
         <v>7</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D449" s="3"/>
       <c r="E449" s="4"/>
@@ -10470,7 +10475,7 @@
         <v>7</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D450" s="3"/>
       <c r="E450" s="4"/>
@@ -10485,7 +10490,7 @@
         <v>7</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D451" s="3"/>
       <c r="E451" s="4"/>
@@ -10500,7 +10505,7 @@
         <v>7</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D452" s="3"/>
       <c r="E452" s="4"/>
@@ -10515,7 +10520,7 @@
         <v>7</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D453" s="3"/>
       <c r="E453" s="4"/>
@@ -10530,7 +10535,7 @@
         <v>7</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D454" s="3"/>
       <c r="E454" s="4"/>
@@ -10545,7 +10550,7 @@
         <v>7</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D455" s="3"/>
       <c r="E455" s="4"/>
@@ -10560,7 +10565,7 @@
         <v>7</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D456" s="3"/>
       <c r="E456" s="4"/>
@@ -10575,7 +10580,7 @@
         <v>7</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D457" s="3"/>
       <c r="E457" s="4"/>
@@ -10590,7 +10595,7 @@
         <v>7</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D458" s="3"/>
       <c r="E458" s="4"/>
@@ -10605,7 +10610,7 @@
         <v>7</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D459" s="3"/>
       <c r="E459" s="4"/>
@@ -10620,7 +10625,7 @@
         <v>7</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D460" s="3"/>
       <c r="E460" s="4"/>
@@ -10635,7 +10640,7 @@
         <v>7</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D461" s="3"/>
       <c r="E461" s="4"/>
@@ -10650,7 +10655,7 @@
         <v>7</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D462" s="3"/>
       <c r="E462" s="4"/>
@@ -10665,7 +10670,7 @@
         <v>7</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D463" s="3"/>
       <c r="E463" s="4"/>
@@ -10680,7 +10685,7 @@
         <v>7</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D464" s="3"/>
       <c r="E464" s="4"/>
@@ -10695,11 +10700,11 @@
         <v>7</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D465" s="3"/>
       <c r="E465" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
@@ -10712,11 +10717,11 @@
         <v>7</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D466" s="3"/>
       <c r="E466" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
@@ -10729,7 +10734,7 @@
         <v>7</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -10744,11 +10749,11 @@
         <v>7</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D468" s="3"/>
       <c r="E468" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
@@ -10761,11 +10766,11 @@
         <v>7</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D469" s="3"/>
       <c r="E469" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
@@ -10778,11 +10783,11 @@
         <v>7</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D470" s="3"/>
       <c r="E470" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
@@ -10795,11 +10800,11 @@
         <v>7</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D471" s="3"/>
       <c r="E471" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
@@ -10812,11 +10817,11 @@
         <v>7</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D472" s="3"/>
       <c r="E472" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
@@ -10829,11 +10834,11 @@
         <v>7</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D473" s="3"/>
       <c r="E473" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
@@ -10846,7 +10851,7 @@
         <v>7</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -10861,11 +10866,11 @@
         <v>7</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D475" s="3"/>
       <c r="E475" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
@@ -10878,11 +10883,11 @@
         <v>7</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D476" s="3"/>
       <c r="E476" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
@@ -10895,7 +10900,7 @@
         <v>7</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -10910,11 +10915,11 @@
         <v>7</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D478" s="3"/>
       <c r="E478" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
@@ -10927,11 +10932,11 @@
         <v>7</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D479" s="3"/>
       <c r="E479" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
@@ -10944,7 +10949,7 @@
         <v>7</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D480" s="3"/>
       <c r="E480" s="2"/>
@@ -10959,7 +10964,7 @@
         <v>7</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -10974,7 +10979,7 @@
         <v>7</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -10989,7 +10994,7 @@
         <v>7</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -11004,7 +11009,7 @@
         <v>7</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D484" s="3"/>
       <c r="E484" s="4"/>
@@ -11019,7 +11024,7 @@
         <v>7</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D485" s="3"/>
       <c r="E485" s="4"/>
@@ -11034,7 +11039,7 @@
         <v>7</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D486" s="3"/>
       <c r="E486" s="4"/>
@@ -11049,7 +11054,7 @@
         <v>7</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D487" s="3"/>
       <c r="E487" s="4"/>
@@ -11064,7 +11069,7 @@
         <v>7</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D488" s="3"/>
       <c r="E488" s="4"/>
@@ -11079,7 +11084,7 @@
         <v>7</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D489" s="3"/>
       <c r="E489" s="2"/>
@@ -11094,11 +11099,11 @@
         <v>7</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D490" s="3"/>
       <c r="E490" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
@@ -11111,11 +11116,11 @@
         <v>7</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D491" s="3"/>
       <c r="E491" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
@@ -11128,11 +11133,11 @@
         <v>7</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D492" s="3"/>
       <c r="E492" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
@@ -11145,11 +11150,11 @@
         <v>7</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D493" s="3"/>
       <c r="E493" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
@@ -11162,11 +11167,11 @@
         <v>7</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D494" s="3"/>
       <c r="E494" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
@@ -11179,11 +11184,11 @@
         <v>7</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D495" s="3"/>
       <c r="E495" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
@@ -11196,11 +11201,11 @@
         <v>7</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D496" s="3"/>
       <c r="E496" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
@@ -11213,11 +11218,11 @@
         <v>7</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D497" s="3"/>
       <c r="E497" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
@@ -11230,11 +11235,11 @@
         <v>7</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D498" s="3"/>
       <c r="E498" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
@@ -11247,11 +11252,11 @@
         <v>7</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D499" s="3"/>
       <c r="E499" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
@@ -11264,11 +11269,11 @@
         <v>7</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D500" s="3"/>
       <c r="E500" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
@@ -11281,11 +11286,11 @@
         <v>7</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D501" s="3"/>
       <c r="E501" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
@@ -11298,11 +11303,11 @@
         <v>7</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D502" s="3"/>
       <c r="E502" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
@@ -11315,11 +11320,11 @@
         <v>7</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D503" s="3"/>
       <c r="E503" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
@@ -11332,11 +11337,11 @@
         <v>7</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D504" s="3"/>
       <c r="E504" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
@@ -11349,11 +11354,11 @@
         <v>7</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D505" s="3"/>
       <c r="E505" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
@@ -11366,7 +11371,7 @@
         <v>7</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -11381,11 +11386,11 @@
         <v>7</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D507" s="3"/>
       <c r="E507" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
@@ -11398,7 +11403,7 @@
         <v>7</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D508" s="3"/>
       <c r="E508" s="3" t="s">
@@ -11415,11 +11420,11 @@
         <v>7</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D509" s="3"/>
       <c r="E509" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
@@ -11432,11 +11437,11 @@
         <v>7</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D510" s="3"/>
       <c r="E510" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
@@ -11449,11 +11454,11 @@
         <v>7</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D511" s="3"/>
       <c r="E511" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
@@ -11466,11 +11471,11 @@
         <v>7</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D512" s="3"/>
       <c r="E512" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
@@ -11483,11 +11488,11 @@
         <v>7</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D513" s="3"/>
       <c r="E513" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
@@ -11500,11 +11505,11 @@
         <v>7</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D514" s="3"/>
       <c r="E514" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
@@ -11517,11 +11522,11 @@
         <v>7</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D515" s="3"/>
       <c r="E515" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
@@ -11534,11 +11539,11 @@
         <v>7</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D516" s="3"/>
       <c r="E516" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
@@ -11551,7 +11556,7 @@
         <v>7</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D517" s="3"/>
       <c r="E517" s="3" t="s">
@@ -11568,11 +11573,11 @@
         <v>7</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D518" s="3"/>
       <c r="E518" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
@@ -11585,11 +11590,11 @@
         <v>7</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D519" s="3"/>
       <c r="E519" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
@@ -11602,11 +11607,11 @@
         <v>7</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D520" s="3"/>
       <c r="E520" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
@@ -11619,11 +11624,11 @@
         <v>7</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D521" s="3"/>
       <c r="E521" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
@@ -11636,11 +11641,11 @@
         <v>7</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D522" s="3"/>
       <c r="E522" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
@@ -11653,11 +11658,11 @@
         <v>7</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D523" s="3"/>
       <c r="E523" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
@@ -11670,11 +11675,11 @@
         <v>7</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D524" s="3"/>
       <c r="E524" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
@@ -11687,7 +11692,7 @@
         <v>7</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -11702,7 +11707,7 @@
         <v>7</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -11717,7 +11722,7 @@
         <v>7</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -11732,11 +11737,11 @@
         <v>7</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D528" s="3"/>
       <c r="E528" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
@@ -11749,11 +11754,11 @@
         <v>7</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D529" s="3"/>
       <c r="E529" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
@@ -11766,11 +11771,11 @@
         <v>7</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D530" s="3"/>
       <c r="E530" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
@@ -11783,7 +11788,7 @@
         <v>7</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -11798,11 +11803,11 @@
         <v>7</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D532" s="3"/>
       <c r="E532" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
@@ -11815,11 +11820,11 @@
         <v>7</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D533" s="3"/>
       <c r="E533" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
@@ -11832,11 +11837,11 @@
         <v>7</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D534" s="3"/>
       <c r="E534" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
@@ -11849,11 +11854,11 @@
         <v>7</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D535" s="3"/>
       <c r="E535" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
@@ -11866,11 +11871,11 @@
         <v>7</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D536" s="3"/>
       <c r="E536" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
@@ -11883,11 +11888,11 @@
         <v>7</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D537" s="3"/>
       <c r="E537" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
@@ -11900,11 +11905,11 @@
         <v>7</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D538" s="3"/>
       <c r="E538" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
@@ -11917,11 +11922,11 @@
         <v>7</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D539" s="3"/>
       <c r="E539" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
@@ -11934,11 +11939,11 @@
         <v>7</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D540" s="3"/>
       <c r="E540" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
@@ -11951,11 +11956,11 @@
         <v>7</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D541" s="3"/>
       <c r="E541" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
@@ -11968,11 +11973,11 @@
         <v>7</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D542" s="3"/>
       <c r="E542" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
@@ -11985,11 +11990,11 @@
         <v>7</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D543" s="3"/>
       <c r="E543" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
@@ -12002,11 +12007,11 @@
         <v>7</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D544" s="3"/>
       <c r="E544" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
@@ -12019,11 +12024,11 @@
         <v>7</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D545" s="3"/>
       <c r="E545" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
@@ -12036,11 +12041,11 @@
         <v>7</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D546" s="3"/>
       <c r="E546" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
@@ -12053,11 +12058,11 @@
         <v>7</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D547" s="3"/>
       <c r="E547" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
@@ -12070,11 +12075,11 @@
         <v>7</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D548" s="3"/>
       <c r="E548" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
@@ -12087,11 +12092,11 @@
         <v>7</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D549" s="3"/>
       <c r="E549" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
@@ -12104,11 +12109,11 @@
         <v>7</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D550" s="3"/>
       <c r="E550" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
@@ -12121,11 +12126,11 @@
         <v>7</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D551" s="3"/>
       <c r="E551" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
@@ -12138,11 +12143,11 @@
         <v>7</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D552" s="3"/>
       <c r="E552" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
@@ -12155,11 +12160,11 @@
         <v>7</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D553" s="3"/>
       <c r="E553" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
@@ -12172,11 +12177,11 @@
         <v>7</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D554" s="3"/>
       <c r="E554" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
@@ -12189,11 +12194,11 @@
         <v>7</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D555" s="3"/>
       <c r="E555" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
@@ -12206,7 +12211,7 @@
         <v>7</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
@@ -12221,11 +12226,11 @@
         <v>7</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D557" s="3"/>
       <c r="E557" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
@@ -12238,11 +12243,11 @@
         <v>7</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D558" s="3"/>
       <c r="E558" s="3" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
@@ -12255,11 +12260,11 @@
         <v>7</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D559" s="3"/>
       <c r="E559" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
@@ -12272,11 +12277,11 @@
         <v>7</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D560" s="3"/>
       <c r="E560" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
@@ -12289,11 +12294,11 @@
         <v>7</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D561" s="3"/>
       <c r="E561" s="4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
@@ -12306,7 +12311,7 @@
         <v>7</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D562" s="3"/>
       <c r="E562" s="4"/>
@@ -12321,11 +12326,11 @@
         <v>7</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D563" s="3"/>
       <c r="E563" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
@@ -12338,11 +12343,11 @@
         <v>7</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D564" s="3"/>
       <c r="E564" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
@@ -12355,11 +12360,11 @@
         <v>7</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D565" s="3"/>
       <c r="E565" s="4" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
@@ -12372,7 +12377,7 @@
         <v>7</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D566" s="3"/>
       <c r="E566" s="2"/>
@@ -12387,7 +12392,7 @@
         <v>7</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D567" s="3"/>
       <c r="E567" s="3" t="s">
@@ -12404,11 +12409,11 @@
         <v>7</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D568" s="3"/>
       <c r="E568" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
@@ -12421,11 +12426,11 @@
         <v>7</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D569" s="3"/>
       <c r="E569" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
@@ -12438,7 +12443,7 @@
         <v>7</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
@@ -12453,11 +12458,11 @@
         <v>7</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D571" s="3"/>
       <c r="E571" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
@@ -12470,7 +12475,7 @@
         <v>7</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
@@ -12485,7 +12490,7 @@
         <v>7</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
@@ -12500,11 +12505,11 @@
         <v>7</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D574" s="3"/>
       <c r="E574" s="4" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
@@ -12517,11 +12522,11 @@
         <v>7</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D575" s="3"/>
       <c r="E575" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
@@ -12534,7 +12539,7 @@
         <v>7</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D576" s="3"/>
       <c r="E576" s="2" t="s">
@@ -12551,7 +12556,7 @@
         <v>7</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
@@ -12566,11 +12571,11 @@
         <v>7</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D578" s="3"/>
       <c r="E578" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
@@ -12583,11 +12588,11 @@
         <v>7</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D579" s="3"/>
       <c r="E579" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
@@ -12600,11 +12605,11 @@
         <v>7</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D580" s="3"/>
       <c r="E580" s="4" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
@@ -12617,11 +12622,11 @@
         <v>7</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D581" s="3"/>
       <c r="E581" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
@@ -12634,11 +12639,11 @@
         <v>7</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D582" s="3"/>
       <c r="E582" s="4" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
@@ -12651,11 +12656,11 @@
         <v>7</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D583" s="3"/>
       <c r="E583" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
@@ -12668,11 +12673,11 @@
         <v>7</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D584" s="3"/>
       <c r="E584" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
@@ -12685,11 +12690,11 @@
         <v>7</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D585" s="3"/>
       <c r="E585" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
@@ -12702,11 +12707,11 @@
         <v>7</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D586" s="3"/>
       <c r="E586" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
@@ -12719,11 +12724,11 @@
         <v>7</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D587" s="3"/>
       <c r="E587" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
@@ -12736,11 +12741,11 @@
         <v>7</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D588" s="3"/>
       <c r="E588" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
@@ -12753,11 +12758,11 @@
         <v>7</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D589" s="3"/>
       <c r="E589" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
@@ -12770,11 +12775,11 @@
         <v>7</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D590" s="3"/>
       <c r="E590" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
@@ -12787,11 +12792,11 @@
         <v>7</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D591" s="3"/>
       <c r="E591" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
@@ -12804,11 +12809,11 @@
         <v>7</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D592" s="3"/>
       <c r="E592" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
@@ -12821,11 +12826,11 @@
         <v>7</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D593" s="3"/>
       <c r="E593" s="4" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
@@ -12838,11 +12843,11 @@
         <v>7</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D594" s="3"/>
       <c r="E594" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
@@ -12855,7 +12860,7 @@
         <v>7</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D595" s="3"/>
       <c r="E595" s="3" t="s">
@@ -12872,11 +12877,11 @@
         <v>7</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D596" s="3"/>
       <c r="E596" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
@@ -12889,11 +12894,11 @@
         <v>7</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D597" s="3"/>
       <c r="E597" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
@@ -12906,11 +12911,11 @@
         <v>7</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D598" s="3"/>
       <c r="E598" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
@@ -12923,11 +12928,11 @@
         <v>7</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D599" s="3"/>
       <c r="E599" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
@@ -12940,11 +12945,11 @@
         <v>7</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D600" s="3"/>
       <c r="E600" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
@@ -12957,11 +12962,11 @@
         <v>7</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D601" s="3"/>
       <c r="E601" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
@@ -12974,11 +12979,11 @@
         <v>7</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D602" s="3"/>
       <c r="E602" s="4" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
@@ -12991,11 +12996,11 @@
         <v>7</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D603" s="3"/>
       <c r="E603" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
@@ -13008,11 +13013,11 @@
         <v>7</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D604" s="3"/>
       <c r="E604" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
@@ -13025,11 +13030,11 @@
         <v>7</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D605" s="3"/>
       <c r="E605" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F605" s="3"/>
       <c r="G605" s="3"/>
@@ -13042,7 +13047,7 @@
         <v>7</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D606" s="3"/>
       <c r="E606" s="2"/>
@@ -13057,7 +13062,7 @@
         <v>7</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
@@ -13072,7 +13077,7 @@
         <v>7</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
@@ -13087,7 +13092,7 @@
         <v>7</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
@@ -13102,7 +13107,7 @@
         <v>7</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E610" s="3"/>
     </row>
@@ -13114,7 +13119,7 @@
         <v>7</v>
       </c>
       <c r="C611" s="5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13125,7 +13130,7 @@
         <v>7</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13136,7 +13141,7 @@
         <v>7</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13147,7 +13152,7 @@
         <v>7</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13158,7 +13163,7 @@
         <v>7</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>

--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="976">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -433,7 +433,7 @@
     <t xml:space="preserve">BuckshotShell</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(x00BuckshotShell:1,CopperIngot:1,Epoxy:1,Gunpowder:6)</t>
+    <t xml:space="preserve">MachiningBench(CopperIngot:1,Epoxy:1,Gunpowder:6)</t>
   </si>
   <si>
     <t xml:space="preserve">BuffaloHead</t>
@@ -1252,7 +1252,7 @@
     <t xml:space="preserve">GrilledPumpkin</t>
   </si>
   <si>
-    <t xml:space="preserve">Campfire(Pumplin:1)|Firepit(Pumplin:1)|Fireplace(Pumplin:1)</t>
+    <t xml:space="preserve">Campfire(Pumpkin:1)|Firepit(Pumpkin:1)|Fireplace(Pumpkin:1)</t>
   </si>
   <si>
     <t xml:space="preserve">GrowthFertilizer</t>
@@ -1345,31 +1345,31 @@
     <t xml:space="preserve">HunterArmsArmor</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(Fiber:120,Leather:8,Epxy:4)</t>
+    <t xml:space="preserve">MachiningBench(Fiber:120,Leather:8,Epoxy:4)</t>
   </si>
   <si>
     <t xml:space="preserve">HunterChestArmor</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(Fiber:160,Leather:20,Rope:6,Epxy:16)</t>
+    <t xml:space="preserve">MachiningBench(Fiber:160,Leather:20,Rope:6,Epoxy:16)</t>
   </si>
   <si>
     <t xml:space="preserve">HunterFeetArmor</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(Fiber:80,Leather:12,Rope:4,Epxy:4)</t>
+    <t xml:space="preserve">MachiningBench(Fiber:80,Leather:12,Rope:4,Epoxy:4)</t>
   </si>
   <si>
     <t xml:space="preserve">HunterHeadArmor</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(Fiber:120,Rope:4,Epxy:8)</t>
+    <t xml:space="preserve">MachiningBench(Fiber:120,Rope:4,Epoxy:8)</t>
   </si>
   <si>
     <t xml:space="preserve">HunterLegsArmor</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(Fiber:160,Leather:20,Rope:6,Epxy:8)</t>
+    <t xml:space="preserve">MachiningBench(Fiber:160,Leather:20,Rope:6,Epoxy:8)</t>
   </si>
   <si>
     <t xml:space="preserve">HuntingRifle</t>
@@ -1537,7 +1537,7 @@
     <t xml:space="preserve">IronSpear</t>
   </si>
   <si>
-    <t xml:space="preserve">AnvilBench(Wood:5,Leather:6,ironIngot:24)</t>
+    <t xml:space="preserve">AnvilBench(Wood:5,Leather:6,IronIngot:24)</t>
   </si>
   <si>
     <t xml:space="preserve">JaguarHead</t>
@@ -2488,7 +2488,7 @@
     <t xml:space="preserve">StoneFurnace</t>
   </si>
   <si>
-    <t xml:space="preserve">CraftingBench(CopperOre:2,IronOre:2)</t>
+    <t xml:space="preserve">CraftingBench(Stick:4,Wood:12,Stone:80,Leather:12)</t>
   </si>
   <si>
     <t xml:space="preserve">StoneHalfpieces</t>
@@ -2961,6 +2961,12 @@
   <si>
     <t xml:space="preserve">Water</t>
   </si>
+  <si>
+    <t xml:space="preserve">ScorpionTail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScorpionPincer</t>
+  </si>
 </sst>
 </file>
 
@@ -2969,7 +2975,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3015,6 +3021,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3058,7 +3071,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3083,6 +3096,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3100,12 +3121,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G615"/>
+  <dimension ref="A1:G617"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M423" activeCellId="0" sqref="M423"/>
+      <selection pane="bottomLeft" activeCell="E84" activeCellId="0" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10000,7 +10021,7 @@
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
     </row>
-    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="s">
         <v>6</v>
       </c>
@@ -13166,10 +13187,32 @@
         <v>973</v>
       </c>
     </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C616" s="6" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C617" s="7" t="s">
+        <v>975</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -2140,7 +2140,7 @@
     <t xml:space="preserve">Rope</t>
   </si>
   <si>
-    <t xml:space="preserve">CraftingBench(Fiber:12)|TextilesBench(Leather:5)</t>
+    <t xml:space="preserve">CraftingBench(Fiber:12)|TextilesBench(Leather:5)|CharacterCrafting(Leather:5)</t>
   </si>
   <si>
     <t xml:space="preserve">SandwormArrow</t>
@@ -2449,7 +2449,26 @@
     <t xml:space="preserve">Stick</t>
   </si>
   <si>
-    <t xml:space="preserve">CarpentryBench(Wood:0.1)|CharacterCrafting(Wood:0.1)</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">CharacterCrafting(Wood:0.1)|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CarpentryBench(Wood:0.1)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Stone</t>
@@ -2975,7 +2994,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3014,6 +3033,13 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3071,7 +3097,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3092,15 +3118,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3124,9 +3154,9 @@
   <dimension ref="A1:G617"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E84" activeCellId="0" sqref="E84"/>
+      <selection pane="bottomLeft" activeCell="E434" activeCellId="0" sqref="E434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11367,7 +11397,7 @@
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
     </row>
-    <row r="505" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="s">
         <v>6</v>
       </c>
@@ -11378,7 +11408,7 @@
         <v>808</v>
       </c>
       <c r="D505" s="3"/>
-      <c r="E505" s="2" t="s">
+      <c r="E505" s="5" t="s">
         <v>809</v>
       </c>
       <c r="F505" s="3"/>
@@ -13139,7 +13169,7 @@
       <c r="B611" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C611" s="5" t="s">
+      <c r="C611" s="6" t="s">
         <v>970</v>
       </c>
     </row>
@@ -13194,7 +13224,7 @@
       <c r="B616" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C616" s="6" t="s">
+      <c r="C616" s="7" t="s">
         <v>974</v>
       </c>
     </row>
@@ -13205,7 +13235,7 @@
       <c r="B617" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C617" s="7" t="s">
+      <c r="C617" s="8" t="s">
         <v>975</v>
       </c>
     </row>

--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="978">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -2985,6 +2985,12 @@
   </si>
   <si>
     <t xml:space="preserve">ScorpionPincer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiofuelRadar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MachiningBench(IronIngot:12,CopperIngot:12,RefinedGold:10,IronNail:8,Glass:8)</t>
   </si>
 </sst>
 </file>
@@ -3151,12 +3157,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G617"/>
+  <dimension ref="A1:G618"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E434" activeCellId="0" sqref="E434"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E619" activeCellId="0" sqref="E619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13239,6 +13245,20 @@
         <v>975</v>
       </c>
     </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C618" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="981">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -2870,12 +2870,34 @@
     <t xml:space="preserve">WoodFloor</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CharacterCrafting(Fiber:12,Wood:20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">|CarpentryBench(Fiber:4,Wood:15)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WoodFloorTrapdoor</t>
+  </si>
+  <si>
     <t xml:space="preserve">CharacterCrafting(Fiber:12,Wood:20)</t>
   </si>
   <si>
-    <t xml:space="preserve">WoodFloorTrapdoor</t>
-  </si>
-  <si>
     <t xml:space="preserve">WoodHalfpieces</t>
   </si>
   <si>
@@ -2915,6 +2937,28 @@
     <t xml:space="preserve">WoodRoof</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CharacterCrafting(Fiber:12,Wood:20)|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">CarpentryBench(Fiber:4,Wood:15)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">WoodRoofCorner</t>
   </si>
   <si>
@@ -2949,6 +2993,28 @@
   </si>
   <si>
     <t xml:space="preserve">WoodWallAngled</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CharacterCrafting(Fiber:6,Wood:10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">|CarpentryBench(Fiber:2,Wood:8)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">WoodWindow</t>
@@ -3159,10 +3225,10 @@
   </sheetPr>
   <dimension ref="A1:G618"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E619" activeCellId="0" sqref="E619"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E605" activeCellId="0" sqref="E605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12756,7 +12822,7 @@
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
     </row>
-    <row r="586" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2" t="s">
         <v>6</v>
       </c>
@@ -12785,7 +12851,7 @@
       </c>
       <c r="D587" s="3"/>
       <c r="E587" s="4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
@@ -12798,11 +12864,11 @@
         <v>7</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D588" s="3"/>
       <c r="E588" s="4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
@@ -12815,11 +12881,11 @@
         <v>7</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D589" s="3"/>
       <c r="E589" s="4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
@@ -12832,11 +12898,11 @@
         <v>7</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D590" s="3"/>
       <c r="E590" s="4" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
@@ -12849,11 +12915,11 @@
         <v>7</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D591" s="3"/>
       <c r="E591" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
@@ -12866,11 +12932,11 @@
         <v>7</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D592" s="3"/>
       <c r="E592" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
@@ -12883,11 +12949,11 @@
         <v>7</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D593" s="3"/>
       <c r="E593" s="4" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
@@ -12900,11 +12966,11 @@
         <v>7</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D594" s="3"/>
       <c r="E594" s="4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
@@ -12917,7 +12983,7 @@
         <v>7</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D595" s="3"/>
       <c r="E595" s="3" t="s">
@@ -12926,7 +12992,7 @@
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
     </row>
-    <row r="596" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="s">
         <v>6</v>
       </c>
@@ -12934,11 +13000,11 @@
         <v>7</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D596" s="3"/>
       <c r="E596" s="4" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
@@ -12951,11 +13017,11 @@
         <v>7</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D597" s="3"/>
       <c r="E597" s="4" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
@@ -12968,11 +13034,11 @@
         <v>7</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D598" s="3"/>
       <c r="E598" s="3" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
@@ -12985,11 +13051,11 @@
         <v>7</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D599" s="3"/>
       <c r="E599" s="4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
@@ -13002,11 +13068,11 @@
         <v>7</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="D600" s="3"/>
       <c r="E600" s="4" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
@@ -13019,11 +13085,11 @@
         <v>7</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D601" s="3"/>
       <c r="E601" s="3" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
@@ -13036,16 +13102,16 @@
         <v>7</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D602" s="3"/>
       <c r="E602" s="4" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
     </row>
-    <row r="603" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="s">
         <v>6</v>
       </c>
@@ -13053,7 +13119,7 @@
         <v>7</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D603" s="3"/>
       <c r="E603" s="4" t="s">
@@ -13062,7 +13128,7 @@
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
     </row>
-    <row r="604" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2" t="s">
         <v>6</v>
       </c>
@@ -13070,11 +13136,11 @@
         <v>7</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D604" s="3"/>
       <c r="E604" s="4" t="s">
-        <v>942</v>
+        <v>966</v>
       </c>
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
@@ -13087,7 +13153,7 @@
         <v>7</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="D605" s="3"/>
       <c r="E605" s="4" t="s">
@@ -13104,7 +13170,7 @@
         <v>7</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="D606" s="3"/>
       <c r="E606" s="2"/>
@@ -13119,7 +13185,7 @@
         <v>7</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
@@ -13134,7 +13200,7 @@
         <v>7</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
@@ -13149,7 +13215,7 @@
         <v>7</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
@@ -13164,7 +13230,7 @@
         <v>7</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="E610" s="3"/>
     </row>
@@ -13176,7 +13242,7 @@
         <v>7</v>
       </c>
       <c r="C611" s="6" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13187,7 +13253,7 @@
         <v>7</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13198,7 +13264,7 @@
         <v>7</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13220,7 +13286,7 @@
         <v>7</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13231,7 +13297,7 @@
         <v>7</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13242,7 +13308,7 @@
         <v>7</v>
       </c>
       <c r="C617" s="8" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13253,10 +13319,10 @@
         <v>7</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="983">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -2457,7 +2457,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">CharacterCrafting(Wood:0.1)|</t>
+      <t xml:space="preserve">NotToBeCrafted()|CharacterCrafting(Wood:0.1)|</t>
     </r>
     <r>
       <rPr>
@@ -3056,7 +3056,13 @@
     <t xml:space="preserve">BiofuelRadar</t>
   </si>
   <si>
-    <t xml:space="preserve">MachiningBench(IronIngot:12,CopperIngot:12,RefinedGold:10,IronNail:8,Glass:8)</t>
+    <t xml:space="preserve">MachiningBench(IronIngot:12,CopperIngot:12,RefinedGold:10,IronNail:8,Glass:2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiofuelExtractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MachiningBench(IronIngot:15,RefinedGold:5,CopperNail:8)</t>
   </si>
 </sst>
 </file>
@@ -3223,12 +3229,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G618"/>
+  <dimension ref="A1:G619"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E605" activeCellId="0" sqref="E605"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A489" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E505" activeCellId="0" sqref="E505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13325,6 +13331,20 @@
         <v>980</v>
       </c>
     </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E619" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1653818239" val="1046" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1653818239" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1653818239" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1653818239"/>
+      <pm:revision xmlns:pm="smNativeData" day="1654565884" val="1046" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1654565884" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1654565884" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1654565884"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="985">
   <si>
     <t>Project</t>
   </si>
@@ -2452,9 +2452,7 @@
     <t>Stick</t>
   </si>
   <si>
-    <r>
-      <t>NotToBeCrafted()|CharacterCrafting(Wood:0.1)|CarpentryBench(Wood:0.1)</t>
-    </r>
+    <t>NotToBeCrafted()|CharacterCrafting(Wood:0.1)|CarpentryBench(Wood:0.1)</t>
   </si>
   <si>
     <t>Stone</t>
@@ -2668,7 +2666,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1653818239">
+            <pm:charSpec xmlns:pm="smNativeData" id="1654565884">
               <pm:latin face="ＭＳ Ｐゴシック" sz="180" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2860,9 +2858,7 @@
     <t>WoodFloor</t>
   </si>
   <si>
-    <r>
-      <t>CharacterCrafting(Fiber:12,Wood:20)|CarpentryBench(Fiber:4,Wood:15)</t>
-    </r>
+    <t>CharacterCrafting(Fiber:12,Wood:20)|CarpentryBench(Fiber:4,Wood:15)</t>
   </si>
   <si>
     <t>WoodFloorTrapdoor</t>
@@ -2910,9 +2906,7 @@
     <t>WoodRoof</t>
   </si>
   <si>
-    <r>
-      <t>CharacterCrafting(Fiber:12,Wood:20)|CarpentryBench(Fiber:4,Wood:15)</t>
-    </r>
+    <t>CharacterCrafting(Fiber:12,Wood:20)|CarpentryBench(Fiber:4,Wood:15)</t>
   </si>
   <si>
     <t>WoodRoofCorner</t>
@@ -2951,9 +2945,7 @@
     <t>WoodWallAngled</t>
   </si>
   <si>
-    <r>
-      <t>CharacterCrafting(Fiber:6,Wood:10)|CarpentryBench(Fiber:2,Wood:8)</t>
-    </r>
+    <t>CharacterCrafting(Fiber:6,Wood:10)|CarpentryBench(Fiber:2,Wood:8)</t>
   </si>
   <si>
     <t>WoodWindow</t>
@@ -3002,6 +2994,12 @@
   </si>
   <si>
     <t>MachiningBench(IronIngot:15,RefinedGold:5,CopperNail:10)</t>
+  </si>
+  <si>
+    <t>SteelArrow</t>
+  </si>
+  <si>
+    <t>CraftingBench(Epoxy:1,Stick:1,SteelIngot:1)</t>
   </si>
 </sst>
 </file>
@@ -3032,7 +3030,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1653818239" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1654565884" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -3047,7 +3045,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1653818239" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1654565884" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -3063,7 +3061,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1653818239" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1654565884" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -3078,7 +3076,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1653818239" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1654565884" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -3094,7 +3092,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1653818239" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1654565884" ulstyle="none" kern="1">
             <pm:latin face="メイリオ" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -3116,7 +3114,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1653818239" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1654565884" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3138,7 +3136,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1653818239"/>
+          <pm:border xmlns:pm="smNativeData" id="1654565884"/>
         </ext>
       </extLst>
     </border>
@@ -3157,7 +3155,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1653818239"/>
+          <pm:border xmlns:pm="smNativeData" id="1654565884"/>
         </ext>
       </extLst>
     </border>
@@ -3170,7 +3168,7 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -3192,6 +3190,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -3204,10 +3206,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1653818239" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1654565884" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1653818239" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1654565884" count="1">
         <pm:color name="*20%灰色" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -3471,11 +3473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G619"/>
+  <dimension ref="A1:G620"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E619" sqref="E619"/>
+      <pane ySplit="1" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E621" sqref="E621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -13586,11 +13588,25 @@
         <v>982</v>
       </c>
     </row>
+    <row r="620" spans="1:5">
+      <c r="A620" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B620" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C620" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="E620" s="13" t="s">
+        <v>984</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1653818239" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1654565884" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -13599,16 +13615,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1653818239" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1653818239" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1653818239" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1653818239" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1654565884" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1654565884" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1654565884" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1654565884" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1653818239" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1654565884" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
